--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm_project\webtechdemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BoChuang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C31640-BDB6-477C-850B-E4145748F28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF5FBF3-B14C-4742-BF23-669C1B1C4EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E1B34DD7-D908-4940-BE30-5BA867A12017}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E1B34DD7-D908-4940-BE30-5BA867A12017}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCDC800-ADD5-4282-B052-B1CFF0436777}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>11</v>
       </c>
@@ -411,9 +411,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
